--- a/e2e_test_output_12week_forecast_test/test_config.xlsx
+++ b/e2e_test_output_12week_forecast_test/test_config.xlsx
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>

--- a/e2e_test_output_12week_forecast_test/test_config.xlsx
+++ b/e2e_test_output_12week_forecast_test/test_config.xlsx
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
